--- a/skq21_12S/data/skq21_12S_faire.xlsx
+++ b/skq21_12S/data/skq21_12S_faire.xlsx
@@ -7881,7 +7881,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -9249,7 +9249,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -9933,7 +9933,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -10595,7 +10595,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -11919,7 +11919,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -12581,7 +12581,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -13243,7 +13243,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -13905,7 +13905,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -14567,7 +14567,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -15229,7 +15229,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -16553,7 +16553,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -17215,7 +17215,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -17877,7 +17877,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -18539,7 +18539,7 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
@@ -19201,7 +19201,7 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
@@ -19863,7 +19863,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
@@ -20525,7 +20525,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -21187,7 +21187,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
@@ -21849,7 +21849,7 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
@@ -22511,7 +22511,7 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
@@ -23173,7 +23173,7 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
@@ -23835,7 +23835,7 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
@@ -24497,7 +24497,7 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
@@ -25159,7 +25159,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
@@ -25821,7 +25821,7 @@
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
@@ -26483,7 +26483,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
@@ -27145,7 +27145,7 @@
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
@@ -27807,7 +27807,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH34" t="inlineStr">
@@ -28469,7 +28469,7 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH35" t="inlineStr">
@@ -29131,7 +29131,7 @@
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH36" t="inlineStr">
@@ -29793,7 +29793,7 @@
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
@@ -30455,7 +30455,7 @@
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH38" t="inlineStr">
@@ -31117,7 +31117,7 @@
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH39" t="inlineStr">
@@ -31779,7 +31779,7 @@
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH40" t="inlineStr">
@@ -32441,7 +32441,7 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH41" t="inlineStr">
@@ -33103,7 +33103,7 @@
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH42" t="inlineStr">
@@ -33765,7 +33765,7 @@
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH43" t="inlineStr">
@@ -34427,7 +34427,7 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH44" t="inlineStr">
@@ -35099,7 +35099,7 @@
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH45" t="inlineStr">
@@ -35761,7 +35761,7 @@
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH46" t="inlineStr">
@@ -36423,7 +36423,7 @@
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH47" t="inlineStr">
@@ -37085,7 +37085,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH48" t="inlineStr">
@@ -37747,7 +37747,7 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH49" t="inlineStr">
@@ -38409,7 +38409,7 @@
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH50" t="inlineStr">
@@ -39071,7 +39071,7 @@
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH51" t="inlineStr">
@@ -39743,7 +39743,7 @@
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH52" t="inlineStr">
@@ -40415,7 +40415,7 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH53" t="inlineStr">
@@ -41077,7 +41077,7 @@
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH54" t="inlineStr">
@@ -41739,7 +41739,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH55" t="inlineStr">
@@ -42411,7 +42411,7 @@
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH56" t="inlineStr">
@@ -43083,7 +43083,7 @@
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH57" t="inlineStr">
@@ -43745,7 +43745,7 @@
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH58" t="inlineStr">
@@ -44417,7 +44417,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH59" t="inlineStr">
@@ -45079,7 +45079,7 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH60" t="inlineStr">
@@ -45741,7 +45741,7 @@
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH61" t="inlineStr">
@@ -46403,7 +46403,7 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH62" t="inlineStr">
@@ -47065,7 +47065,7 @@
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH63" t="inlineStr">
@@ -47727,7 +47727,7 @@
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH64" t="inlineStr">
@@ -48399,7 +48399,7 @@
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH65" t="inlineStr">
@@ -49061,7 +49061,7 @@
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH66" t="inlineStr">
@@ -49723,7 +49723,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH67" t="inlineStr">
@@ -50385,7 +50385,7 @@
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH68" t="inlineStr">
@@ -51047,7 +51047,7 @@
       </c>
       <c r="AG69" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH69" t="inlineStr">
@@ -51719,7 +51719,7 @@
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH70" t="inlineStr">
@@ -52391,7 +52391,7 @@
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH71" t="inlineStr">
@@ -53053,7 +53053,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH72" t="inlineStr">
@@ -53725,7 +53725,7 @@
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH73" t="inlineStr">
@@ -54387,7 +54387,7 @@
       </c>
       <c r="AG74" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH74" t="inlineStr">
@@ -55059,7 +55059,7 @@
       </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH75" t="inlineStr">
@@ -55721,7 +55721,7 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH76" t="inlineStr">
@@ -56393,7 +56393,7 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH77" t="inlineStr">
@@ -57055,7 +57055,7 @@
       </c>
       <c r="AG78" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH78" t="inlineStr">
@@ -57727,7 +57727,7 @@
       </c>
       <c r="AG79" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH79" t="inlineStr">
@@ -58399,7 +58399,7 @@
       </c>
       <c r="AG80" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH80" t="inlineStr">
@@ -59061,7 +59061,7 @@
       </c>
       <c r="AG81" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH81" t="inlineStr">
@@ -59723,7 +59723,7 @@
       </c>
       <c r="AG82" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH82" t="inlineStr">
@@ -60395,7 +60395,7 @@
       </c>
       <c r="AG83" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH83" t="inlineStr">
@@ -61067,7 +61067,7 @@
       </c>
       <c r="AG84" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH84" t="inlineStr">
@@ -61729,7 +61729,7 @@
       </c>
       <c r="AG85" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH85" t="inlineStr">
@@ -62391,7 +62391,7 @@
       </c>
       <c r="AG86" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH86" t="inlineStr">
@@ -63053,7 +63053,7 @@
       </c>
       <c r="AG87" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH87" t="inlineStr">
@@ -63715,7 +63715,7 @@
       </c>
       <c r="AG88" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH88" t="inlineStr">
@@ -64377,7 +64377,7 @@
       </c>
       <c r="AG89" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH89" t="inlineStr">
@@ -65039,7 +65039,7 @@
       </c>
       <c r="AG90" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH90" t="inlineStr">
@@ -65701,7 +65701,7 @@
       </c>
       <c r="AG91" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH91" t="inlineStr">
@@ -66363,7 +66363,7 @@
       </c>
       <c r="AG92" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH92" t="inlineStr">
@@ -67025,7 +67025,7 @@
       </c>
       <c r="AG93" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH93" t="inlineStr">
@@ -67687,7 +67687,7 @@
       </c>
       <c r="AG94" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH94" t="inlineStr">
@@ -68349,7 +68349,7 @@
       </c>
       <c r="AG95" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH95" t="inlineStr">
@@ -69011,7 +69011,7 @@
       </c>
       <c r="AG96" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH96" t="inlineStr">
@@ -69673,7 +69673,7 @@
       </c>
       <c r="AG97" t="inlineStr">
         <is>
-          <t>OME Freezer C</t>
+          <t>OME -80 Freezer</t>
         </is>
       </c>
       <c r="AH97" t="inlineStr">
@@ -70327,117 +70327,117 @@
       </c>
       <c r="AC98" t="inlineStr">
         <is>
+          <t>ambient</t>
+        </is>
+      </c>
+      <c r="AD98" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="AE98" t="inlineStr">
+        <is>
           <t>not applicable: control sample</t>
         </is>
       </c>
-      <c r="AD98" t="inlineStr">
-        <is>
-          <t>not applicable</t>
-        </is>
-      </c>
-      <c r="AE98" t="inlineStr">
+      <c r="AF98" t="inlineStr">
+        <is>
+          <t>SKQ2021</t>
+        </is>
+      </c>
+      <c r="AG98" t="inlineStr">
         <is>
           <t>not applicable: control sample</t>
         </is>
       </c>
-      <c r="AF98" t="inlineStr">
+      <c r="AH98" t="inlineStr">
+        <is>
+          <t>Stored in a 1 L brown Nalgene bottle</t>
+        </is>
+      </c>
+      <c r="AI98" t="inlineStr">
+        <is>
+          <t>Water samples were filtered through a 0.22 micron sterivex filter using a peristaltic pump with tubing attached to the outlet end of the sterivex.</t>
+        </is>
+      </c>
+      <c r="AJ98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AK98" t="inlineStr">
         <is>
           <t>not applicable: control sample</t>
         </is>
       </c>
-      <c r="AG98" t="inlineStr">
+      <c r="AL98" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="AM98" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="AN98" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="AO98" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="AP98" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AQ98" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="AR98" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="AS98" t="inlineStr">
+        <is>
+          <t>polyethersulfone</t>
+        </is>
+      </c>
+      <c r="AT98" t="inlineStr">
+        <is>
+          <t>Millipore-Sigma Sterivex Filter</t>
+        </is>
+      </c>
+      <c r="AU98" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="AV98" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="AW98" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="AX98" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="AY98" t="inlineStr">
         <is>
           <t>not applicable: control sample</t>
-        </is>
-      </c>
-      <c r="AH98" t="inlineStr">
-        <is>
-          <t>Stored in a 1 L brown Nalgene bottle</t>
-        </is>
-      </c>
-      <c r="AI98" t="inlineStr">
-        <is>
-          <t>Water samples were filtered through a 0.22 micron sterivex filter using a peristaltic pump with tubing attached to the outlet end of the sterivex.</t>
-        </is>
-      </c>
-      <c r="AJ98" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AK98" t="inlineStr">
-        <is>
-          <t>not applicable: control sample</t>
-        </is>
-      </c>
-      <c r="AL98" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
-      <c r="AM98" t="inlineStr">
-        <is>
-          <t>not applicable</t>
-        </is>
-      </c>
-      <c r="AN98" t="inlineStr">
-        <is>
-          <t>not applicable</t>
-        </is>
-      </c>
-      <c r="AO98" t="inlineStr">
-        <is>
-          <t>not applicable</t>
-        </is>
-      </c>
-      <c r="AP98" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="AQ98" t="inlineStr">
-        <is>
-          <t>not applicable</t>
-        </is>
-      </c>
-      <c r="AR98" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="AS98" t="inlineStr">
-        <is>
-          <t>polyethersulfone</t>
-        </is>
-      </c>
-      <c r="AT98" t="inlineStr">
-        <is>
-          <t>Millipore-Sigma Sterivex Filter</t>
-        </is>
-      </c>
-      <c r="AU98" t="inlineStr">
-        <is>
-          <t>not applicable</t>
-        </is>
-      </c>
-      <c r="AV98" t="inlineStr">
-        <is>
-          <t>not applicable</t>
-        </is>
-      </c>
-      <c r="AW98" t="inlineStr">
-        <is>
-          <t>not applicable</t>
-        </is>
-      </c>
-      <c r="AX98" t="inlineStr">
-        <is>
-          <t>not applicable</t>
-        </is>
-      </c>
-      <c r="AY98" t="inlineStr">
-        <is>
-          <t>-20</t>
         </is>
       </c>
       <c r="AZ98" t="inlineStr">
@@ -71037,117 +71037,117 @@
       </c>
       <c r="AC99" t="inlineStr">
         <is>
+          <t>ambient</t>
+        </is>
+      </c>
+      <c r="AD99" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="AE99" t="inlineStr">
+        <is>
           <t>not applicable: control sample</t>
         </is>
       </c>
-      <c r="AD99" t="inlineStr">
-        <is>
-          <t>not applicable</t>
-        </is>
-      </c>
-      <c r="AE99" t="inlineStr">
+      <c r="AF99" t="inlineStr">
+        <is>
+          <t>SKQ2021</t>
+        </is>
+      </c>
+      <c r="AG99" t="inlineStr">
         <is>
           <t>not applicable: control sample</t>
         </is>
       </c>
-      <c r="AF99" t="inlineStr">
+      <c r="AH99" t="inlineStr">
+        <is>
+          <t>Stored in a 1 L brown Nalgene bottle</t>
+        </is>
+      </c>
+      <c r="AI99" t="inlineStr">
+        <is>
+          <t>Water samples were filtered through a 0.22 micron sterivex filter using a peristaltic pump with tubing attached to the outlet end of the sterivex.</t>
+        </is>
+      </c>
+      <c r="AJ99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AK99" t="inlineStr">
         <is>
           <t>not applicable: control sample</t>
         </is>
       </c>
-      <c r="AG99" t="inlineStr">
+      <c r="AL99" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="AM99" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="AN99" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="AO99" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="AP99" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AQ99" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="AR99" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="AS99" t="inlineStr">
+        <is>
+          <t>polyethersulfone</t>
+        </is>
+      </c>
+      <c r="AT99" t="inlineStr">
+        <is>
+          <t>Millipore-Sigma Sterivex Filter</t>
+        </is>
+      </c>
+      <c r="AU99" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="AV99" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="AW99" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="AX99" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="AY99" t="inlineStr">
         <is>
           <t>not applicable: control sample</t>
-        </is>
-      </c>
-      <c r="AH99" t="inlineStr">
-        <is>
-          <t>Stored in a 1 L brown Nalgene bottle</t>
-        </is>
-      </c>
-      <c r="AI99" t="inlineStr">
-        <is>
-          <t>Water samples were filtered through a 0.22 micron sterivex filter using a peristaltic pump with tubing attached to the outlet end of the sterivex.</t>
-        </is>
-      </c>
-      <c r="AJ99" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AK99" t="inlineStr">
-        <is>
-          <t>not applicable: control sample</t>
-        </is>
-      </c>
-      <c r="AL99" t="inlineStr">
-        <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
-      <c r="AM99" t="inlineStr">
-        <is>
-          <t>not applicable</t>
-        </is>
-      </c>
-      <c r="AN99" t="inlineStr">
-        <is>
-          <t>not applicable</t>
-        </is>
-      </c>
-      <c r="AO99" t="inlineStr">
-        <is>
-          <t>not applicable</t>
-        </is>
-      </c>
-      <c r="AP99" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="AQ99" t="inlineStr">
-        <is>
-          <t>not applicable</t>
-        </is>
-      </c>
-      <c r="AR99" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="AS99" t="inlineStr">
-        <is>
-          <t>polyethersulfone</t>
-        </is>
-      </c>
-      <c r="AT99" t="inlineStr">
-        <is>
-          <t>Millipore-Sigma Sterivex Filter</t>
-        </is>
-      </c>
-      <c r="AU99" t="inlineStr">
-        <is>
-          <t>not applicable</t>
-        </is>
-      </c>
-      <c r="AV99" t="inlineStr">
-        <is>
-          <t>not applicable</t>
-        </is>
-      </c>
-      <c r="AW99" t="inlineStr">
-        <is>
-          <t>not applicable</t>
-        </is>
-      </c>
-      <c r="AX99" t="inlineStr">
-        <is>
-          <t>not applicable</t>
-        </is>
-      </c>
-      <c r="AY99" t="inlineStr">
-        <is>
-          <t>-20</t>
         </is>
       </c>
       <c r="AZ99" t="inlineStr">
